--- a/resources/experiment 1/metrics/R2/average time/Ceguera.xlsx
+++ b/resources/experiment 1/metrics/R2/average time/Ceguera.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9790747862392738</v>
+        <v>0.978416500096945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9790747862392738</v>
+        <v>0.9767452644274428</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9790747862392738</v>
+        <v>0.9767038059856029</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9828434918757009</v>
+        <v>0.9793034381245443</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9828434918757009</v>
+        <v>0.9802699348530096</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9828434918757009</v>
+        <v>0.980289892381167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9515926647608327</v>
+        <v>0.9763731090403213</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9515926647608327</v>
+        <v>0.9805226687536566</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9515926647608327</v>
+        <v>0.981632033308304</v>
       </c>
     </row>
   </sheetData>
